--- a/P0010/09_FICHAS/N3-FD-General.xlsx
+++ b/P0010/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0019\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{146883CC-79F4-4E20-8840-CB5122870AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AB4085C-6473-4D2B-AF89-54DE1BC151B0}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{146883CC-79F4-4E20-8840-CB5122870AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07D36308-1553-4464-9ADA-6232ED055E26}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -98,7 +98,31 @@
     <t>INFORMACION GENERAL.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\Administrator\Documents\S3\Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0010\02_PRODUCTOS\PRODUCTO 03-MATRIZ COMPARATIVA\MATRICES\INFORMACION GENERAL.xlsx</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0010/02_PRODUCTOS/PRODUCTO 03-MATRIZ COMPARATIVA\MATRICES/INFORMACION GENERAL.xlsx</t>
+  </si>
+  <si>
+    <t>03_MATRIZ COMPARATIVA V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta base de datos contiene información sobre las generalidades de la región de La Mojana, centrándose en su extensión territorial, números de predios, población y demografía, información político administrativa, sociocultural y ambiental. </t>
+  </si>
+  <si>
+    <t>base de datos</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mayoría de los registros en esta base de datos corresponden hasta el año 2011, por lo cual, no es muy actualizada y podría no ser muy relevante para la toma de decisiones.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de datos, La Mojana, generalidades, población, demografía, información, político administrativa, sociocultural, ambiental, Sucre, Bolívar, Córdoba, Antioquia.     </t>
   </si>
   <si>
     <t>R0002</t>
@@ -107,7 +131,16 @@
     <t>MATRIZ GENERAL DOCUMENTOS.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\Administrator\Documents\S3\Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0010\02_PRODUCTOS\PRODUCTO 03-MATRIZ COMPARATIVA\MATRICES\MATRIZ GENERAL DOCUMENTOS.xlsx</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0010/02_PRODUCTOS/PRODUCTO 03-MATRIZ COMPARATIVA/MATRICES/MATRIZ GENERAL DOCUMENTOS.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta base de datos contiene la recopilación de la información relevante institucional, clasificada en ámbito nacional, regional, departamental y municipal. Se presentan estadísticas y graficas de toda la información identificada.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mayoría de los registros en esta base de datos corresponden hasta el año 2013, por lo cual, se podría actualizar y ser relevante para la toma de decisiones.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de datos, La Mojana, generalidades, información, estudios, recopilación, Sucre, Bolívar, Córdoba, Antioquia.     </t>
   </si>
 </sst>
 </file>
@@ -149,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -200,24 +233,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +588,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -516,10 +603,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -560,64 +647,108 @@
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="F2" s="7">
+        <v>2014</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2014</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
